--- a/1_Clean_Data/Yang_2021_CP/CodeBook_Yang_2021_CP_Exp1_Clean.xlsx
+++ b/1_Clean_Data/Yang_2021_CP/CodeBook_Yang_2021_CP_Exp1_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -41,43 +41,61 @@
     <t>Variable_category</t>
   </si>
   <si>
+    <t>Variable_name</t>
+  </si>
+  <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Participant identifier</t>
+    <t>Participant number</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Shape of the object</t>
+  </si>
+  <si>
+    <t>Self, Friend, Stranger</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Word associated with the task</t>
   </si>
   <si>
     <t>Matching</t>
   </si>
   <si>
-    <t>Whether the shape-label pairing matched or mismatched</t>
-  </si>
-  <si>
-    <t>Match;Nomatch</t>
+    <t>Type of matching task performed</t>
+  </si>
+  <si>
+    <t>Matching;Nomatching</t>
   </si>
   <si>
     <t>Identity</t>
   </si>
   <si>
-    <t>Identity associated with the shape</t>
-  </si>
-  <si>
-    <t>Self, Friend,Stranger</t>
+    <t>Type of identity task performed</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimental group or condition </t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <t>Participant group</t>
+  </si>
+  <si>
+    <t>1;2</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -86,9 +104,6 @@
     <t>Reaction time in milliseconds</t>
   </si>
   <si>
-    <t>Numeric</t>
-  </si>
-  <si>
     <t>RT_sec</t>
   </si>
   <si>
@@ -98,7 +113,7 @@
     <t>ACC</t>
   </si>
   <si>
-    <t>Accuracy of the participant's response</t>
+    <t>Accuracy of the response</t>
   </si>
   <si>
     <t>0;1</t>
@@ -1041,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
@@ -1074,97 +1089,139 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
